--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnas-Lhcgr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H2">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I2">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J2">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,25 +558,25 @@
         <v>0.2640186666666667</v>
       </c>
       <c r="N2">
-        <v>0.792056</v>
+        <v>0.7920560000000001</v>
       </c>
       <c r="O2">
-        <v>0.7009959279618303</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="P2">
-        <v>0.7009959279618302</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="Q2">
-        <v>29.30742219146133</v>
+        <v>49.91467008657689</v>
       </c>
       <c r="R2">
-        <v>263.766799723152</v>
+        <v>449.232030779192</v>
       </c>
       <c r="S2">
-        <v>0.05339960600975414</v>
+        <v>0.0497887241922518</v>
       </c>
       <c r="T2">
-        <v>0.05339960600975412</v>
+        <v>0.0497887241922518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>111.005114</v>
+        <v>189.0573523333333</v>
       </c>
       <c r="H3">
-        <v>333.015342</v>
+        <v>567.172057</v>
       </c>
       <c r="I3">
-        <v>0.07617677061978852</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="J3">
-        <v>0.0761767706197885</v>
+        <v>0.1182556374491171</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.112615</v>
+        <v>0.363065</v>
       </c>
       <c r="N3">
-        <v>0.337845</v>
+        <v>1.089195</v>
       </c>
       <c r="O3">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185895</v>
       </c>
       <c r="P3">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185893</v>
       </c>
       <c r="Q3">
-        <v>12.50084091311</v>
+        <v>68.64010762490166</v>
       </c>
       <c r="R3">
-        <v>112.50756821799</v>
+        <v>617.760968624115</v>
       </c>
       <c r="S3">
-        <v>0.02277716461003438</v>
+        <v>0.0684669132568653</v>
       </c>
       <c r="T3">
-        <v>0.02277716461003437</v>
+        <v>0.06846691325686528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H4">
         <v>2790.450928</v>
       </c>
       <c r="I4">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J4">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,25 +682,25 @@
         <v>0.2640186666666667</v>
       </c>
       <c r="N4">
-        <v>0.792056</v>
+        <v>0.7920560000000001</v>
       </c>
       <c r="O4">
-        <v>0.7009959279618303</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="P4">
-        <v>0.7009959279618302</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="Q4">
-        <v>245.5770444697743</v>
+        <v>245.5770444697742</v>
       </c>
       <c r="R4">
         <v>2210.193400227968</v>
       </c>
       <c r="S4">
-        <v>0.4474537997253978</v>
+        <v>0.2449573985733311</v>
       </c>
       <c r="T4">
-        <v>0.4474537997253976</v>
+        <v>0.2449573985733311</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>930.1503093333334</v>
+        <v>930.1503093333332</v>
       </c>
       <c r="H5">
         <v>2790.450928</v>
       </c>
       <c r="I5">
-        <v>0.6383115534299679</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="J5">
-        <v>0.6383115534299678</v>
+        <v>0.5818103152093762</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.112615</v>
+        <v>0.363065</v>
       </c>
       <c r="N5">
-        <v>0.337845</v>
+        <v>1.089195</v>
       </c>
       <c r="O5">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185895</v>
       </c>
       <c r="P5">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185893</v>
       </c>
       <c r="Q5">
-        <v>104.7488770855734</v>
+        <v>337.7050220581066</v>
       </c>
       <c r="R5">
-        <v>942.7398937701601</v>
+        <v>3039.345198522959</v>
       </c>
       <c r="S5">
-        <v>0.1908577537045701</v>
+        <v>0.3368529166360451</v>
       </c>
       <c r="T5">
-        <v>0.1908577537045701</v>
+        <v>0.3368529166360451</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H6">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I6">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J6">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,25 +806,25 @@
         <v>0.2640186666666667</v>
       </c>
       <c r="N6">
-        <v>0.792056</v>
+        <v>0.7920560000000001</v>
       </c>
       <c r="O6">
-        <v>0.7009959279618303</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="P6">
-        <v>0.7009959279618302</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="Q6">
-        <v>90.71031460715555</v>
+        <v>111.0634469117724</v>
       </c>
       <c r="R6">
-        <v>816.3928314643999</v>
+        <v>999.571022205952</v>
       </c>
       <c r="S6">
-        <v>0.1652787826032074</v>
+        <v>0.1107832089551984</v>
       </c>
       <c r="T6">
-        <v>0.1652787826032073</v>
+        <v>0.1107832089551984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>343.5753833333333</v>
+        <v>420.6651306666666</v>
       </c>
       <c r="H7">
-        <v>1030.72615</v>
+        <v>1261.995392</v>
       </c>
       <c r="I7">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="J7">
-        <v>0.235777093718306</v>
+        <v>0.2631266256807295</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.112615</v>
+        <v>0.363065</v>
       </c>
       <c r="N7">
-        <v>0.337845</v>
+        <v>1.089195</v>
       </c>
       <c r="O7">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185895</v>
       </c>
       <c r="P7">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185893</v>
       </c>
       <c r="Q7">
-        <v>38.69174179408333</v>
+        <v>152.7287856654933</v>
       </c>
       <c r="R7">
-        <v>348.22567614675</v>
+        <v>1374.55907098944</v>
       </c>
       <c r="S7">
-        <v>0.07049831111509867</v>
+        <v>0.1523434167255311</v>
       </c>
       <c r="T7">
-        <v>0.07049831111509865</v>
+        <v>0.1523434167255311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H8">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I8">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J8">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,25 +930,25 @@
         <v>0.2640186666666667</v>
       </c>
       <c r="N8">
-        <v>0.792056</v>
+        <v>0.7920560000000001</v>
       </c>
       <c r="O8">
-        <v>0.7009959279618303</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="P8">
-        <v>0.7009959279618302</v>
+        <v>0.4210262213814106</v>
       </c>
       <c r="Q8">
-        <v>19.13434222963378</v>
+        <v>15.53609069779645</v>
       </c>
       <c r="R8">
-        <v>172.209080066704</v>
+        <v>139.824816280168</v>
       </c>
       <c r="S8">
-        <v>0.03486373962347102</v>
+        <v>0.0154968896606293</v>
       </c>
       <c r="T8">
-        <v>0.03486373962347101</v>
+        <v>0.0154968896606293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>72.47344466666667</v>
+        <v>58.84466766666667</v>
       </c>
       <c r="H9">
-        <v>217.420334</v>
+        <v>176.534003</v>
       </c>
       <c r="I9">
-        <v>0.04973458223193755</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="J9">
-        <v>0.04973458223193754</v>
+        <v>0.03680742166077718</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.112615</v>
+        <v>0.363065</v>
       </c>
       <c r="N9">
-        <v>0.337845</v>
+        <v>1.089195</v>
       </c>
       <c r="O9">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185895</v>
       </c>
       <c r="P9">
-        <v>0.2990040720381697</v>
+        <v>0.5789737786185893</v>
       </c>
       <c r="Q9">
-        <v>8.161596971136667</v>
+        <v>21.36443926639834</v>
       </c>
       <c r="R9">
-        <v>73.45437274023</v>
+        <v>192.279953397585</v>
       </c>
       <c r="S9">
-        <v>0.01487084260846653</v>
+        <v>0.02131053200014788</v>
       </c>
       <c r="T9">
-        <v>0.01487084260846653</v>
+        <v>0.02131053200014788</v>
       </c>
     </row>
   </sheetData>
